--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{996B3027-2DCD-0F4F-8A8D-06C3FD134B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6342EB1C-D36A-5544-AB85-6A413A53FEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
+    <workbookView xWindow="17340" yWindow="940" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary_Reference_Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="241">
   <si>
     <t>Address</t>
   </si>
@@ -731,6 +731,18 @@
   </si>
   <si>
     <t>Grupo Meximining</t>
+  </si>
+  <si>
+    <t>Flat Ridge 4 Wind, LLC</t>
+  </si>
+  <si>
+    <t>ONE SOUTH WACKER DRIVE SUITE 1800, Chicago, USA</t>
+  </si>
+  <si>
+    <t>Flat Ridges 5 Wind Energy, LLC</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
   </si>
 </sst>
 </file>
@@ -1591,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,6 +1614,7 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,7 +3017,36 @@
         <v>232</v>
       </c>
     </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6342EB1C-D36A-5544-AB85-6A413A53FEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C94A4-1838-4849-8A20-A3FFA4924D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17340" yWindow="940" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>10004</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>10006</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>10007</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>10008</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10009</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>10010</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10011</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>10012</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>10013</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>10014</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>10015</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>10016</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>10017</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>10018</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>10019</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>10020</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>10021</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>10022</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>10023</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>10024</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>10025</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>10026</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>10027</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>10028</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>10029</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>10030</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>10031</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>10032</v>
       </c>
       <c r="B33" t="s">
         <v>91</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>10033</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>10034</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>10035</v>
       </c>
       <c r="B36" t="s">
         <v>98</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>10036</v>
       </c>
       <c r="B37" t="s">
         <v>101</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>10037</v>
       </c>
       <c r="B38" t="s">
         <v>104</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>10038</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>10039</v>
       </c>
       <c r="B40" t="s">
         <v>109</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>10040</v>
       </c>
       <c r="B41" t="s">
         <v>111</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>10041</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>10042</v>
       </c>
       <c r="B43" t="s">
         <v>117</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>10043</v>
       </c>
       <c r="B44" t="s">
         <v>119</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>10044</v>
       </c>
       <c r="B45" t="s">
         <v>121</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>10045</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>10046</v>
       </c>
       <c r="B47" t="s">
         <v>125</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>10047</v>
       </c>
       <c r="B48" t="s">
         <v>127</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>10048</v>
       </c>
       <c r="B49" t="s">
         <v>129</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>10049</v>
       </c>
       <c r="B50" t="s">
         <v>132</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>10050</v>
       </c>
       <c r="B51" t="s">
         <v>135</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>10051</v>
       </c>
       <c r="B52" t="s">
         <v>138</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>10052</v>
       </c>
       <c r="B53" t="s">
         <v>140</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>10053</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>10054</v>
       </c>
       <c r="B55" t="s">
         <v>145</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>10055</v>
       </c>
       <c r="B56" t="s">
         <v>147</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>10056</v>
       </c>
       <c r="B57" t="s">
         <v>149</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>10057</v>
       </c>
       <c r="B58" t="s">
         <v>151</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>10058</v>
       </c>
       <c r="B59" t="s">
         <v>153</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>10059</v>
       </c>
       <c r="B60" t="s">
         <v>155</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>10060</v>
       </c>
       <c r="B61" t="s">
         <v>157</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>10061</v>
       </c>
       <c r="B62" t="s">
         <v>159</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>10062</v>
       </c>
       <c r="B63" t="s">
         <v>161</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>10063</v>
       </c>
       <c r="B64" t="s">
         <v>163</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>10064</v>
       </c>
       <c r="B65" t="s">
         <v>166</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>10065</v>
       </c>
       <c r="B66" t="s">
         <v>168</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>10066</v>
       </c>
       <c r="B67" t="s">
         <v>170</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>10067</v>
       </c>
       <c r="B68" t="s">
         <v>172</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>10068</v>
       </c>
       <c r="B69" t="s">
         <v>174</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>10069</v>
       </c>
       <c r="B70" t="s">
         <v>176</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>10070</v>
       </c>
       <c r="B71" t="s">
         <v>178</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>10071</v>
       </c>
       <c r="B72" t="s">
         <v>181</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>10072</v>
       </c>
       <c r="B73" t="s">
         <v>184</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>10073</v>
       </c>
       <c r="B74" t="s">
         <v>186</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>10074</v>
       </c>
       <c r="B75" t="s">
         <v>188</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>10075</v>
       </c>
       <c r="B76" t="s">
         <v>190</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>10076</v>
       </c>
       <c r="B77" t="s">
         <v>191</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>10077</v>
       </c>
       <c r="B78" t="s">
         <v>194</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>10078</v>
       </c>
       <c r="B79" t="s">
         <v>195</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>10079</v>
       </c>
       <c r="B80" t="s">
         <v>198</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>10080</v>
       </c>
       <c r="B81" t="s">
         <v>200</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>10081</v>
       </c>
       <c r="B82" t="s">
         <v>202</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>10082</v>
       </c>
       <c r="B83" t="s">
         <v>205</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>10083</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>10084</v>
       </c>
       <c r="B85" t="s">
         <v>210</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>10085</v>
       </c>
       <c r="B86" t="s">
         <v>212</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>10086</v>
       </c>
       <c r="B87" t="s">
         <v>214</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>10087</v>
       </c>
       <c r="B88" t="s">
         <v>216</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>10088</v>
       </c>
       <c r="B89" t="s">
         <v>218</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>10089</v>
       </c>
       <c r="B90" t="s">
         <v>220</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>10090</v>
       </c>
       <c r="B91" t="s">
         <v>222</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>10091</v>
       </c>
       <c r="B92" t="s">
         <v>159</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>10092</v>
       </c>
       <c r="B93" t="s">
         <v>163</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>10093</v>
       </c>
       <c r="B94" t="s">
         <v>161</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>10094</v>
       </c>
       <c r="B95" t="s">
         <v>166</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>10095</v>
       </c>
       <c r="B96" t="s">
         <v>236</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>10096</v>
       </c>
       <c r="B97" t="s">
         <v>224</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>10097</v>
       </c>
       <c r="B98" t="s">
         <v>226</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>10098</v>
       </c>
       <c r="B99" t="s">
         <v>228</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>10099</v>
       </c>
       <c r="B100" t="s">
         <v>230</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>10100</v>
       </c>
       <c r="B101" t="s">
         <v>237</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>101</v>
+        <v>10101</v>
       </c>
       <c r="B102" t="s">
         <v>239</v>

--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C94A4-1838-4849-8A20-A3FFA4924D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCDE6A-DF3F-3645-A6B8-2C9471F8B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="940" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
+    <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary_Reference_Table" sheetId="1" r:id="rId1"/>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCDE6A-DF3F-3645-A6B8-2C9471F8B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D979F-3373-B84F-B760-47960E344A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary_Reference_Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="246">
   <si>
     <t>Address</t>
   </si>
@@ -743,6 +756,21 @@
   </si>
   <si>
     <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Banco Pichincha</t>
+  </si>
+  <si>
+    <t>Avenida Amazonas N35-211 y Japon, Quito, Ecuador</t>
+  </si>
+  <si>
+    <t>Av. Libertadores, Monterrey, Mexico</t>
+  </si>
+  <si>
+    <t>PetroEcuador</t>
+  </si>
+  <si>
+    <t>Alpallana E8-86 Y Av. , 6 de Diciembre, Quito, Ecuador</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2896,10 +2924,10 @@
         <v>10091</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="D92" t="s">
         <v>116</v>
@@ -2910,13 +2938,13 @@
         <v>10092</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2955,7 +2983,7 @@
         <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="D96" t="s">
         <v>165</v>

--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D979F-3373-B84F-B760-47960E344A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6096480-5FC0-EA40-AB84-B2F18B99044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
@@ -758,9 +758,6 @@
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>Banco Pichincha</t>
-  </si>
-  <si>
     <t>Avenida Amazonas N35-211 y Japon, Quito, Ecuador</t>
   </si>
   <si>
@@ -771,6 +768,9 @@
   </si>
   <si>
     <t>Alpallana E8-86 Y Av. , 6 de Diciembre, Quito, Ecuador</t>
+  </si>
+  <si>
+    <t>Banco Pichincha S.A.</t>
   </si>
 </sst>
 </file>
@@ -1633,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,10 +2924,10 @@
         <v>10091</v>
       </c>
       <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
         <v>244</v>
-      </c>
-      <c r="C92" t="s">
-        <v>245</v>
       </c>
       <c r="D92" t="s">
         <v>116</v>
@@ -2938,10 +2938,10 @@
         <v>10092</v>
       </c>
       <c r="B93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" t="s">
         <v>241</v>
-      </c>
-      <c r="C93" t="s">
-        <v>242</v>
       </c>
       <c r="D93" t="s">
         <v>58</v>
@@ -2983,7 +2983,7 @@
         <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
         <v>165</v>

--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6096480-5FC0-EA40-AB84-B2F18B99044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2DC47-4295-E148-87B6-E3FDA61D1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="242">
   <si>
     <t>Address</t>
   </si>
@@ -744,18 +744,6 @@
   </si>
   <si>
     <t>Grupo Meximining</t>
-  </si>
-  <si>
-    <t>Flat Ridge 4 Wind, LLC</t>
-  </si>
-  <si>
-    <t>ONE SOUTH WACKER DRIVE SUITE 1800, Chicago, USA</t>
-  </si>
-  <si>
-    <t>Flat Ridges 5 Wind Energy, LLC</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
   </si>
   <si>
     <t>Avenida Amazonas N35-211 y Japon, Quito, Ecuador</t>
@@ -1631,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,10 +2912,10 @@
         <v>10091</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D92" t="s">
         <v>116</v>
@@ -2938,10 +2926,10 @@
         <v>10092</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
         <v>58</v>
@@ -2983,7 +2971,7 @@
         <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
         <v>165</v>
@@ -3043,34 +3031,6 @@
       </c>
       <c r="D100" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>10100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" t="s">
-        <v>238</v>
-      </c>
-      <c r="D101" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>10101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" t="s">
-        <v>238</v>
-      </c>
-      <c r="D102" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Dataset/Primary_Reference_Table.xlsx
+++ b/Sample_Dataset/Primary_Reference_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2DC47-4295-E148-87B6-E3FDA61D1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5790A2E-A8E8-834A-AE23-53C62A9A2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="21260" xr2:uid="{AA52B1F4-6BB6-F249-9A3E-614D06AF30CA}"/>
   </bookViews>
@@ -1621,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689D17A-95C1-6D47-AC04-865FE7DB841E}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
